--- a/化工/data_input/PTA现货价格.xlsx
+++ b/化工/data_input/PTA现货价格.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3592"/>
+  <dimension ref="A1:B3594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29179,6 +29179,22 @@
         <v>4468.34</v>
       </c>
     </row>
+    <row r="3593">
+      <c r="A3593" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3593" t="n">
+        <v>4535.67</v>
+      </c>
+    </row>
+    <row r="3594">
+      <c r="A3594" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3594" t="n">
+        <v>4558.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
